--- a/Documentation/TableDesign.xlsx
+++ b/Documentation/TableDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronwright/Desktop/Classic-Models-Pipeline/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4A47C6A-898A-BA49-87AA-2CA995F3E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA9F143-8F63-104B-B87C-45EDD242BA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="780" windowWidth="15120" windowHeight="17340" xr2:uid="{5FD8C952-8E9E-264F-A560-42FEC8861F96}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{5FD8C952-8E9E-264F-A560-42FEC8861F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Fact" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Payment" sheetId="4" r:id="rId5"/>
     <sheet name="Product" sheetId="3" r:id="rId6"/>
     <sheet name="Date" sheetId="1" r:id="rId7"/>
-    <sheet name="Dim Template" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="272">
   <si>
     <t>Column Name</t>
   </si>
@@ -135,6 +134,9 @@
     <t>Day represented as number</t>
   </si>
   <si>
+    <t>1, 2, 3…</t>
+  </si>
+  <si>
     <t>1, 2, 3, 4, 5, 6, 7</t>
   </si>
   <si>
@@ -180,6 +182,15 @@
     <t>Fact table representing order line items</t>
   </si>
   <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>order_status</t>
+  </si>
+  <si>
+    <t>customer_number</t>
+  </si>
+  <si>
     <t>order_number</t>
   </si>
   <si>
@@ -225,6 +236,9 @@
     <t>order_status_key</t>
   </si>
   <si>
+    <t>STRING</t>
+  </si>
+  <si>
     <t>sales_rep_key</t>
   </si>
   <si>
@@ -270,9 +284,6 @@
     <t>Degenerate</t>
   </si>
   <si>
-    <t>Foreign</t>
-  </si>
-  <si>
     <t>Classic Models 3NF</t>
   </si>
   <si>
@@ -298,6 +309,555 @@
   </si>
   <si>
     <t>INT</t>
+  </si>
+  <si>
+    <t>Dimension table representing customers</t>
+  </si>
+  <si>
+    <t>payment_key</t>
+  </si>
+  <si>
+    <t>contact_first_name</t>
+  </si>
+  <si>
+    <t>contact_last_name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>address_1</t>
+  </si>
+  <si>
+    <t>address_2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>sales_rep_email</t>
+  </si>
+  <si>
+    <t>sales_rep_fullname</t>
+  </si>
+  <si>
+    <t>sales_rep_id</t>
+  </si>
+  <si>
+    <t>credit_limit</t>
+  </si>
+  <si>
+    <t>Surrogate primary key</t>
+  </si>
+  <si>
+    <t>Dimension table representing customer sales rep details</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>reports_to</t>
+  </si>
+  <si>
+    <t>job_title</t>
+  </si>
+  <si>
+    <t>office_id</t>
+  </si>
+  <si>
+    <t>office_city</t>
+  </si>
+  <si>
+    <t>office_phone</t>
+  </si>
+  <si>
+    <t>office_address_1</t>
+  </si>
+  <si>
+    <t>office_address_2</t>
+  </si>
+  <si>
+    <t>office_state</t>
+  </si>
+  <si>
+    <t>office_country</t>
+  </si>
+  <si>
+    <t>office_postal_code</t>
+  </si>
+  <si>
+    <t>office_territory</t>
+  </si>
+  <si>
+    <t>Dimension Key</t>
+  </si>
+  <si>
+    <t>Natural key</t>
+  </si>
+  <si>
+    <t>First name of sales rep</t>
+  </si>
+  <si>
+    <t>Last name of sales rep</t>
+  </si>
+  <si>
+    <t>Sales rep extension code</t>
+  </si>
+  <si>
+    <t>Sales rep email address</t>
+  </si>
+  <si>
+    <t>Sales rep manager</t>
+  </si>
+  <si>
+    <t>Sales rep job title</t>
+  </si>
+  <si>
+    <t>ID of sales rep's office</t>
+  </si>
+  <si>
+    <t>City of sales rep's office</t>
+  </si>
+  <si>
+    <t>office phone number</t>
+  </si>
+  <si>
+    <t>Office address line 2</t>
+  </si>
+  <si>
+    <t>Office address line 1</t>
+  </si>
+  <si>
+    <t>Office state</t>
+  </si>
+  <si>
+    <t>Office country</t>
+  </si>
+  <si>
+    <t>Office post code</t>
+  </si>
+  <si>
+    <t>Office territory</t>
+  </si>
+  <si>
+    <t>Boston, France…</t>
+  </si>
+  <si>
+    <t>+1 212 555 3000…</t>
+  </si>
+  <si>
+    <t>10 Court Place…</t>
+  </si>
+  <si>
+    <t>Floor 1, Level 7…</t>
+  </si>
+  <si>
+    <t>MA, NY…</t>
+  </si>
+  <si>
+    <t>USA, UK…</t>
+  </si>
+  <si>
+    <t>EC2N 1HN, 10022…</t>
+  </si>
+  <si>
+    <t>EMEA, NA, APAC…</t>
+  </si>
+  <si>
+    <t>1002, 1102…</t>
+  </si>
+  <si>
+    <t>Mary, Aaron…</t>
+  </si>
+  <si>
+    <t>Wright, Patterson…</t>
+  </si>
+  <si>
+    <t>x5800, x9723…</t>
+  </si>
+  <si>
+    <t>VP Sales, Sales manager…</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>employeeNumber</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>reportsTo</t>
+  </si>
+  <si>
+    <t>jobTitle</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>mpatterson@ gmail.com…</t>
+  </si>
+  <si>
+    <t>offices</t>
+  </si>
+  <si>
+    <t>officeCode</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>addressLine1</t>
+  </si>
+  <si>
+    <t>addressLine2</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>territory</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>Dimension table representing the status of orders</t>
+  </si>
+  <si>
+    <t>order_comments</t>
+  </si>
+  <si>
+    <t>Comments relating to order</t>
+  </si>
+  <si>
+    <t>Shipped, Cancelled…</t>
+  </si>
+  <si>
+    <t>Long string text</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>payments_dim</t>
+  </si>
+  <si>
+    <t>Dimension table representing payments made by customers</t>
+  </si>
+  <si>
+    <t>check_number</t>
+  </si>
+  <si>
+    <t>payment_date</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Date of payment</t>
+  </si>
+  <si>
+    <t>Check number</t>
+  </si>
+  <si>
+    <t>Customer number</t>
+  </si>
+  <si>
+    <t>Amount paid</t>
+  </si>
+  <si>
+    <t>1000, 1002…</t>
+  </si>
+  <si>
+    <t>B0864823…</t>
+  </si>
+  <si>
+    <t>2023-07-09…</t>
+  </si>
+  <si>
+    <t>82261.22…</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>customerNumber</t>
+  </si>
+  <si>
+    <t>checkNumber</t>
+  </si>
+  <si>
+    <t>paymentDate</t>
+  </si>
+  <si>
+    <t>DECIMAL(10, 2)</t>
+  </si>
+  <si>
+    <t>Dimension table representing products</t>
+  </si>
+  <si>
+    <t>product_line</t>
+  </si>
+  <si>
+    <t>product_line_description</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_scale</t>
+  </si>
+  <si>
+    <t>product_vendor</t>
+  </si>
+  <si>
+    <t>product_description</t>
+  </si>
+  <si>
+    <t>quantity_in_stock</t>
+  </si>
+  <si>
+    <t>product_price</t>
+  </si>
+  <si>
+    <t>msrp</t>
+  </si>
+  <si>
+    <t>Primary surrogate key</t>
+  </si>
+  <si>
+    <t>Description of product line</t>
+  </si>
+  <si>
+    <t>Product line</t>
+  </si>
+  <si>
+    <t>Name of product</t>
+  </si>
+  <si>
+    <t>Scale of product</t>
+  </si>
+  <si>
+    <t>1:10, 48.81…</t>
+  </si>
+  <si>
+    <t>Vendor of product</t>
+  </si>
+  <si>
+    <t>Description of product</t>
+  </si>
+  <si>
+    <t>Number in stock</t>
+  </si>
+  <si>
+    <t>price of product</t>
+  </si>
+  <si>
+    <t>Suggested retail price</t>
+  </si>
+  <si>
+    <t>Classic Cars, Motorcycles…</t>
+  </si>
+  <si>
+    <t>Long text</t>
+  </si>
+  <si>
+    <t>S10_1678…</t>
+  </si>
+  <si>
+    <t>Harley Davidson, Alpine…</t>
+  </si>
+  <si>
+    <t>Classic Metal Creations…</t>
+  </si>
+  <si>
+    <t>500, 100…</t>
+  </si>
+  <si>
+    <t>70.10, 43.00…</t>
+  </si>
+  <si>
+    <t>89.20, 888.20…</t>
+  </si>
+  <si>
+    <t>productlines</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>productLine</t>
+  </si>
+  <si>
+    <t>textDescription</t>
+  </si>
+  <si>
+    <t>productCode</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>productScale</t>
+  </si>
+  <si>
+    <t>productVendor</t>
+  </si>
+  <si>
+    <t>productDescription</t>
+  </si>
+  <si>
+    <t>quantityInStock</t>
+  </si>
+  <si>
+    <t>buyPrice</t>
+  </si>
+  <si>
+    <t>MSRP</t>
+  </si>
+  <si>
+    <t>VARCHAR(4000)</t>
+  </si>
+  <si>
+    <t>VARCHAR(70)</t>
+  </si>
+  <si>
+    <t>Foreign key to payment dimension</t>
+  </si>
+  <si>
+    <t>Number assigned to customer</t>
+  </si>
+  <si>
+    <t>Customer contact first name</t>
+  </si>
+  <si>
+    <t>Customer contact last name</t>
+  </si>
+  <si>
+    <t>Phone number of customer</t>
+  </si>
+  <si>
+    <t>Address line 1 of customer</t>
+  </si>
+  <si>
+    <t>Address line 2 of customer</t>
+  </si>
+  <si>
+    <t>City of customer</t>
+  </si>
+  <si>
+    <t>State of customer</t>
+  </si>
+  <si>
+    <t>Post code of customer</t>
+  </si>
+  <si>
+    <t>Country of customer</t>
+  </si>
+  <si>
+    <t>Email of customer sales rep</t>
+  </si>
+  <si>
+    <t>Full name of customer sales rep</t>
+  </si>
+  <si>
+    <t>ID of customer sales rep</t>
+  </si>
+  <si>
+    <t>Aaron Wright…</t>
+  </si>
+  <si>
+    <t>Credit limit of customer</t>
+  </si>
+  <si>
+    <t>21000, 22200…</t>
+  </si>
+  <si>
+    <t>1002, 1004...</t>
+  </si>
+  <si>
+    <t>aaron.jwright@ cloud.com</t>
+  </si>
+  <si>
+    <t>AB20, 44000…</t>
+  </si>
+  <si>
+    <t>NV, NULL, NY…</t>
+  </si>
+  <si>
+    <t>NYC, Amsterdam…</t>
+  </si>
+  <si>
+    <t>Strong st…</t>
+  </si>
+  <si>
+    <t>Flat 6…</t>
+  </si>
+  <si>
+    <t>+44 69 99 00 2555…</t>
+  </si>
+  <si>
+    <t>Ben, Susie…</t>
+  </si>
+  <si>
+    <t>Wright, Smith…</t>
+  </si>
+  <si>
+    <t>103, 101, 106…</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>contactFirstName</t>
+  </si>
+  <si>
+    <t>contactLastName</t>
+  </si>
+  <si>
+    <t>creditLimit</t>
+  </si>
+  <si>
+    <t>DECIMAL(10,2)</t>
+  </si>
+  <si>
+    <t>firstName + lastName</t>
+  </si>
+  <si>
+    <t>VARCHAR(50) + VARCHAR(50)</t>
   </si>
 </sst>
 </file>
@@ -376,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,11 +960,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="90">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -415,24 +979,6 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -442,33 +988,6 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -478,33 +997,6 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -514,33 +1006,6 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -565,18 +1030,6 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -640,15 +1093,6 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -676,12 +1120,6 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -694,7 +1132,91 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -731,160 +1253,139 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F7FBEDC-AF55-DE4A-9141-8BD0D4BA7EE8}" name="Table1356" displayName="Table1356" ref="B7:L18" totalsRowShown="0" headerRowDxfId="99" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F7FBEDC-AF55-DE4A-9141-8BD0D4BA7EE8}" name="Table1356" displayName="Table1356" ref="B7:L18" totalsRowShown="0" headerRowDxfId="86" dataDxfId="72">
   <autoFilter ref="B7:L18" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C0A66670-72F7-5745-9810-616633EC36C7}" name="Column Name" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{7614E7DC-64E5-5D4D-B3E1-8F2A8BB0AEB7}" name="Description" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{9407CD98-4646-0048-9325-CCB5665766DB}" name="Datatype" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{9D85391A-C1AD-3444-804A-CB8952FD7880}" name="Size" dataDxfId="92"/>
-    <tableColumn id="12" xr3:uid="{2666D05A-81C7-2149-9B87-4077604750FD}" name="Type" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{A292EA02-75CD-9E4E-98FA-7F9DEA745C13}" name="Dimension Table" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{DFF68E0D-AAE3-BB44-A4E2-A6E042308CD3}" name="Source System" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{70D17A4C-C36D-E04A-903A-A178592553AB}" name="Source Table" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{884DBD1E-EED3-DA48-AF2B-1E5197A2215B}" name="Source Field Name" dataDxfId="88"/>
-    <tableColumn id="10" xr3:uid="{F06DCCAC-C57C-2040-B096-E4C7B16A635E}" name="Source Datatype" dataDxfId="87"/>
-    <tableColumn id="11" xr3:uid="{92817EB4-5754-804A-887C-4E62CB80CF2E}" name="ETL Rules" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{C0A66670-72F7-5745-9810-616633EC36C7}" name="Column Name" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{7614E7DC-64E5-5D4D-B3E1-8F2A8BB0AEB7}" name="Description" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{9407CD98-4646-0048-9325-CCB5665766DB}" name="Datatype" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{9D85391A-C1AD-3444-804A-CB8952FD7880}" name="Size" dataDxfId="79"/>
+    <tableColumn id="12" xr3:uid="{2666D05A-81C7-2149-9B87-4077604750FD}" name="Type" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{A292EA02-75CD-9E4E-98FA-7F9DEA745C13}" name="Dimension Table" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{DFF68E0D-AAE3-BB44-A4E2-A6E042308CD3}" name="Source System" dataDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{70D17A4C-C36D-E04A-903A-A178592553AB}" name="Source Table" dataDxfId="76"/>
+    <tableColumn id="9" xr3:uid="{884DBD1E-EED3-DA48-AF2B-1E5197A2215B}" name="Source Field Name" dataDxfId="75"/>
+    <tableColumn id="10" xr3:uid="{F06DCCAC-C57C-2040-B096-E4C7B16A635E}" name="Source Datatype" dataDxfId="74"/>
+    <tableColumn id="11" xr3:uid="{92817EB4-5754-804A-887C-4E62CB80CF2E}" name="ETL Rules" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EDE6E84D-A439-1043-AD6D-564DE5A8929D}" name="Table135789" displayName="Table135789" ref="B7:L13" totalsRowShown="0" headerRowDxfId="96" dataDxfId="73">
-  <autoFilter ref="B7:L13" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EDE6E84D-A439-1043-AD6D-564DE5A8929D}" name="Table135789" displayName="Table135789" ref="B7:L23" totalsRowShown="0" headerRowDxfId="83" dataDxfId="63">
+  <autoFilter ref="B7:L23" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A1B21817-C772-1640-86B4-2DA9203B9F79}" name="Column Name" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{69734DCC-34D6-C545-AE22-1CA749BCEEE6}" name="Description" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{489FCC5A-FD90-674D-8971-59BF5EB4BFAA}" name="Datatype" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{3172BA47-7212-124D-B6CD-23B9F5F06E20}" name="Size" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{1FBF338A-8524-6844-A6DF-E9D73E9DEDDD}" name="Example Values" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{8E035F2F-40D0-9A49-896E-815F397C8821}" name="SCD Type" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{7DFB308B-A8FA-8D4F-B7AC-10EDF33BFED0}" name="Source System" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{01F120DC-A51B-7644-B60B-5B880A252EEE}" name="Source Table" dataDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{2D5A07D4-CF3D-BF4A-AF5A-EA63AA61F7A8}" name="Source Field Name" dataDxfId="76"/>
-    <tableColumn id="10" xr3:uid="{1C577C96-CEBD-2344-9007-2366DEF90580}" name="Source Datatype" dataDxfId="75"/>
-    <tableColumn id="11" xr3:uid="{FB95F14F-5060-964A-82B5-2DA1E36A8512}" name="ETL Rules" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{A1B21817-C772-1640-86B4-2DA9203B9F79}" name="Column Name" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{69734DCC-34D6-C545-AE22-1CA749BCEEE6}" name="Description" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{489FCC5A-FD90-674D-8971-59BF5EB4BFAA}" name="Datatype" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{3172BA47-7212-124D-B6CD-23B9F5F06E20}" name="Size" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{1FBF338A-8524-6844-A6DF-E9D73E9DEDDD}" name="Example Values" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{8E035F2F-40D0-9A49-896E-815F397C8821}" name="SCD Type" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{7DFB308B-A8FA-8D4F-B7AC-10EDF33BFED0}" name="Source System" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{01F120DC-A51B-7644-B60B-5B880A252EEE}" name="Source Table" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{2D5A07D4-CF3D-BF4A-AF5A-EA63AA61F7A8}" name="Source Field Name" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{1C577C96-CEBD-2344-9007-2366DEF90580}" name="Source Datatype" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{FB95F14F-5060-964A-82B5-2DA1E36A8512}" name="ETL Rules" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8BB438E6-12CF-864D-A247-02AB621E8BA5}" name="Table13578" displayName="Table13578" ref="B7:L13" totalsRowShown="0" headerRowDxfId="97" dataDxfId="61">
-  <autoFilter ref="B7:L13" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8BB438E6-12CF-864D-A247-02AB621E8BA5}" name="Table13578" displayName="Table13578" ref="B7:L24" totalsRowShown="0" headerRowDxfId="84" dataDxfId="54">
+  <autoFilter ref="B7:L24" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C584DEBD-C814-904C-8D39-3B0103349A2A}" name="Column Name" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{959E1030-B7CB-164C-9407-AA71E7D6A2E8}" name="Description" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{C99183DA-90C8-944E-B8B8-1698F6576EC3}" name="Datatype" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{D5D1DCD8-7DE1-4449-8842-6C695CE7C9A0}" name="Size" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{2411E5AC-EF5C-8F40-9AF4-AC22496ABB78}" name="Example Values" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{49A08221-B54A-894E-A08B-643A8D08BDB6}" name="SCD Type" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{5B4EC4FF-D1CC-8446-91AF-4BF564BAA11B}" name="Source System" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{E67C70E2-5759-5E40-8B56-2C0F74CF34B3}" name="Source Table" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{C6BB67ED-9DD9-9041-A6F6-168A7919008E}" name="Source Field Name" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{CC241D8E-D8BB-CF46-9DDB-9D9AC3F12FB4}" name="Source Datatype" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{E77668DD-0E44-7A48-9C90-F0CE541F05E9}" name="ETL Rules" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{C584DEBD-C814-904C-8D39-3B0103349A2A}" name="Column Name" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{959E1030-B7CB-164C-9407-AA71E7D6A2E8}" name="Description" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{C99183DA-90C8-944E-B8B8-1698F6576EC3}" name="Datatype" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{D5D1DCD8-7DE1-4449-8842-6C695CE7C9A0}" name="Size" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{2411E5AC-EF5C-8F40-9AF4-AC22496ABB78}" name="Example Values" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{49A08221-B54A-894E-A08B-643A8D08BDB6}" name="SCD Type" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5B4EC4FF-D1CC-8446-91AF-4BF564BAA11B}" name="Source System" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{E67C70E2-5759-5E40-8B56-2C0F74CF34B3}" name="Source Table" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{C6BB67ED-9DD9-9041-A6F6-168A7919008E}" name="Source Field Name" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{CC241D8E-D8BB-CF46-9DDB-9D9AC3F12FB4}" name="Source Datatype" dataDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{E77668DD-0E44-7A48-9C90-F0CE541F05E9}" name="ETL Rules" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F3385666-D965-434E-86C0-AC9995D89AB7}" name="Table1357" displayName="Table1357" ref="B7:L13" totalsRowShown="0" headerRowDxfId="98" dataDxfId="49">
-  <autoFilter ref="B7:L13" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F3385666-D965-434E-86C0-AC9995D89AB7}" name="Table1357" displayName="Table1357" ref="B7:L10" totalsRowShown="0" headerRowDxfId="85" dataDxfId="45">
+  <autoFilter ref="B7:L10" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5BCC3CF7-D258-3A40-9927-2F2BF9A3AB74}" name="Column Name" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{6449DD8E-1B1E-E543-99E2-C3D7AC9E962B}" name="Description" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{5190D7C9-EF8A-F442-8E90-2BFA89F2F7A2}" name="Datatype" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{C04D4462-CBE3-8C42-B41E-2332E62A6A8C}" name="Size" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{77B95DE1-392D-4048-AD9B-1B74E78636A2}" name="Example Values" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{33207A63-2A56-2741-BA03-7119671B5946}" name="SCD Type" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{5F9611B7-E9DB-B143-8BF9-80E3F520BB8C}" name="Source System" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{8F63C404-3896-D34A-9C0A-A0E753D5BE09}" name="Source Table" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{F3E5D2BF-15E4-0542-875F-C795B142001D}" name="Source Field Name" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{3F55614B-3162-F648-B2AE-355535AD452A}" name="Source Datatype" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{1D09D1F9-B727-4245-A741-015338650693}" name="ETL Rules" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{5BCC3CF7-D258-3A40-9927-2F2BF9A3AB74}" name="Column Name" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{6449DD8E-1B1E-E543-99E2-C3D7AC9E962B}" name="Description" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{5190D7C9-EF8A-F442-8E90-2BFA89F2F7A2}" name="Datatype" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{C04D4462-CBE3-8C42-B41E-2332E62A6A8C}" name="Size" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{77B95DE1-392D-4048-AD9B-1B74E78636A2}" name="Example Values" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{33207A63-2A56-2741-BA03-7119671B5946}" name="SCD Type" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5F9611B7-E9DB-B143-8BF9-80E3F520BB8C}" name="Source System" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8F63C404-3896-D34A-9C0A-A0E753D5BE09}" name="Source Table" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{F3E5D2BF-15E4-0542-875F-C795B142001D}" name="Source Field Name" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{3F55614B-3162-F648-B2AE-355535AD452A}" name="Source Datatype" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{1D09D1F9-B727-4245-A741-015338650693}" name="ETL Rules" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6F0A383E-9A0F-E84A-87F1-DCB388B32DF6}" name="Table135" displayName="Table135" ref="B7:L13" totalsRowShown="0" headerRowDxfId="100" dataDxfId="37">
-  <autoFilter ref="B7:L13" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6F0A383E-9A0F-E84A-87F1-DCB388B32DF6}" name="Table135" displayName="Table135" ref="B7:L12" totalsRowShown="0" headerRowDxfId="87" dataDxfId="36">
+  <autoFilter ref="B7:L12" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A978015D-6333-C845-8E01-F6A15A9B634F}" name="Column Name" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{C8958F3D-1BFC-D248-8759-B7C565170C76}" name="Description" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{64FBBFBA-2ABA-F64B-B108-BC5EC156070F}" name="Datatype" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{89AD1419-141D-D64C-9779-8F2834810A37}" name="Size" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{950B0D37-F1E8-3C44-B363-097934F0E3E7}" name="Example Values" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{00F8F4E5-7D6F-F241-AC1B-36B669EA2979}" name="SCD Type" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{61447852-8347-C649-B886-12BE769C7C7B}" name="Source System" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{B5E47C7B-37C8-5B49-96F0-250E40F84A75}" name="Source Table" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{DD929A88-12EB-0643-BF77-C37C967A5DD8}" name="Source Field Name" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{2497EB94-87C4-4F45-93FF-C25856600593}" name="Source Datatype" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{D39C4A58-2D6F-4146-BD40-C8C3026CB662}" name="ETL Rules" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{A978015D-6333-C845-8E01-F6A15A9B634F}" name="Column Name" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{C8958F3D-1BFC-D248-8759-B7C565170C76}" name="Description" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{64FBBFBA-2ABA-F64B-B108-BC5EC156070F}" name="Datatype" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{89AD1419-141D-D64C-9779-8F2834810A37}" name="Size" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{950B0D37-F1E8-3C44-B363-097934F0E3E7}" name="Example Values" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00F8F4E5-7D6F-F241-AC1B-36B669EA2979}" name="SCD Type" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{61447852-8347-C649-B886-12BE769C7C7B}" name="Source System" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{B5E47C7B-37C8-5B49-96F0-250E40F84A75}" name="Source Table" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{DD929A88-12EB-0643-BF77-C37C967A5DD8}" name="Source Field Name" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{2497EB94-87C4-4F45-93FF-C25856600593}" name="Source Datatype" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{D39C4A58-2D6F-4146-BD40-C8C3026CB662}" name="ETL Rules" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3CB1CF57-ED0E-E443-93DA-65F02AB8EB3D}" name="Table134" displayName="Table134" ref="B7:L13" totalsRowShown="0" headerRowDxfId="101" dataDxfId="25">
-  <autoFilter ref="B7:L13" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3CB1CF57-ED0E-E443-93DA-65F02AB8EB3D}" name="Table134" displayName="Table134" ref="B7:L18" totalsRowShown="0" headerRowDxfId="88" dataDxfId="24">
+  <autoFilter ref="B7:L18" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EB568B60-51DA-D74D-B258-E884F1091F65}" name="Column Name" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{DF43ED1C-799E-C941-A52B-DC264E7F032A}" name="Description" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{C69F0B6C-E17E-C244-B756-E80AF35E8518}" name="Datatype" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{2EB7BBC5-B25C-5E4E-B1CD-D3DCFB581190}" name="Size" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{08CC9840-E9C4-2C4C-AE52-84E1DC83631E}" name="Example Values" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{30811A87-E4BA-024D-A0A6-8E01C51C9D64}" name="SCD Type" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{8C13A828-76BB-604E-B5FE-D11030AE2ED1}" name="Source System" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{1FB9D052-6042-6149-A7C6-760B09D7634D}" name="Source Table" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{5D8FBB47-78F2-5943-B2A9-43F5649E8CB6}" name="Source Field Name" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{0AA52402-DB3D-6645-8BF6-F5F7B8D9B731}" name="Source Datatype" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{2E19D5C1-7B04-9645-BD70-8F7C80535573}" name="ETL Rules" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{EB568B60-51DA-D74D-B258-E884F1091F65}" name="Column Name" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{DF43ED1C-799E-C941-A52B-DC264E7F032A}" name="Description" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{C69F0B6C-E17E-C244-B756-E80AF35E8518}" name="Datatype" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{2EB7BBC5-B25C-5E4E-B1CD-D3DCFB581190}" name="Size" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{08CC9840-E9C4-2C4C-AE52-84E1DC83631E}" name="Example Values" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{30811A87-E4BA-024D-A0A6-8E01C51C9D64}" name="SCD Type" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{8C13A828-76BB-604E-B5FE-D11030AE2ED1}" name="Source System" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{1FB9D052-6042-6149-A7C6-760B09D7634D}" name="Source Table" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{5D8FBB47-78F2-5943-B2A9-43F5649E8CB6}" name="Source Field Name" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{0AA52402-DB3D-6645-8BF6-F5F7B8D9B731}" name="Source Datatype" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{2E19D5C1-7B04-9645-BD70-8F7C80535573}" name="ETL Rules" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}" name="Table1" displayName="Table1" ref="B7:L13" totalsRowShown="0" headerRowDxfId="103" dataDxfId="13">
-  <autoFilter ref="B7:L13" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{950159E0-B1BA-B947-843F-05CABE1C860A}" name="Column Name" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{80C3FD40-6C46-8848-9934-A09A914677BE}" name="Description" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{3E74FDAB-4F2D-F94B-994C-68FC8706F3CD}" name="Datatype" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{D7388206-2470-9A40-ABED-AFD30A3B569E}" name="Size" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{B2E019A1-8A96-2C41-8CBA-3E971F9E10C8}" name="Example Values" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{DFBB17BA-5656-9444-B69D-33EF471AAD2B}" name="SCD Type" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}" name="Table1" displayName="Table1" ref="B7:K13" totalsRowShown="0" headerRowDxfId="89" dataDxfId="13">
+  <autoFilter ref="B7:K13" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{950159E0-B1BA-B947-843F-05CABE1C860A}" name="Column Name" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{80C3FD40-6C46-8848-9934-A09A914677BE}" name="Description" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{3E74FDAB-4F2D-F94B-994C-68FC8706F3CD}" name="Datatype" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{D7388206-2470-9A40-ABED-AFD30A3B569E}" name="Size" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{B2E019A1-8A96-2C41-8CBA-3E971F9E10C8}" name="Example Values" dataDxfId="19"/>
     <tableColumn id="7" xr3:uid="{19E9B87D-63D9-7E47-BE36-AF9200FDF3E1}" name="Source System" dataDxfId="18"/>
     <tableColumn id="8" xr3:uid="{72662327-8C51-FB42-872F-9ACE24BCD8DA}" name="Source Table" dataDxfId="17"/>
     <tableColumn id="9" xr3:uid="{DB951715-43B9-5F41-8CAC-52DA4FF68F6D}" name="Source Field Name" dataDxfId="16"/>
     <tableColumn id="10" xr3:uid="{4292621E-F3AE-9D46-8773-386CEF930FB3}" name="Source Datatype" dataDxfId="15"/>
     <tableColumn id="11" xr3:uid="{5E31F455-2DF8-2B40-AC5E-0C0261E4C62F}" name="ETL Rules" dataDxfId="14"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6DF593CF-1A6E-CC4F-A4B4-15CDCEF656E2}" name="Table13" displayName="Table13" ref="B7:L13" totalsRowShown="0" headerRowDxfId="102" dataDxfId="1">
-  <autoFilter ref="B7:L13" xr:uid="{9409BE0B-E814-AD40-BABC-48B7798028C4}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{70C2DF33-BCD5-214A-B9FC-D89631F02EBC}" name="Column Name" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{9EA1672C-2E1A-BA4A-9AD6-7939FBFAC213}" name="Description" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{C260506B-A11A-2F41-B406-5160FAA9D5B6}" name="Datatype" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{2EB726F7-C759-0B40-B739-4A000B85CACE}" name="Size" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{228926C2-1EE2-5441-BC94-64EA4989962E}" name="Example Values" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{CA282784-1509-3A4B-B008-2208E8E3DC50}" name="SCD Type" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{C4162351-3FE7-5149-B95B-1ECA7DB02867}" name="Source System" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{430525FF-DFCA-A742-8E0B-0708C4B9D352}" name="Source Table" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{ABA0ED63-AC6F-AA46-896C-E1A6300B123D}" name="Source Field Name" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{ED983DB9-0031-7E4D-A2BE-DA2BBC9046B5}" name="Source Datatype" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{BD8B5882-1705-714E-A405-663EAE558EB6}" name="ETL Rules" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1189,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F938402-14AE-3E44-8C9B-035695676430}">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -1222,7 +1723,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1234,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1272,10 +1773,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>6</v>
@@ -1295,17 +1796,17 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>14</v>
@@ -1318,17 +1819,17 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>14</v>
@@ -1341,17 +1842,17 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -1364,20 +1865,20 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1387,20 +1888,20 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1410,20 +1911,20 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1433,20 +1934,20 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1456,119 +1957,119 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -1589,10 +2090,1303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D982262E-0B44-A444-89E3-B9B92F81A3A5}">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:L23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="28.83203125" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="15" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="6" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1">
+        <v>50</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L23" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF139419-7959-DC42-9E5A-A08F0D1DCBC5}">
+  <dimension ref="B2:L24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="12" width="22" customWidth="1"/>
+    <col min="13" max="15" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="6" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1">
+        <v>50</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461C1C7C-FB6A-9246-B15C-A99464E8ABDB}">
+  <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:L13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1611,31 +3405,37 @@
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="6" spans="2:12" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -1690,82 +3490,91 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1782,12 +3591,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF139419-7959-DC42-9E5A-A08F0D1DCBC5}">
-  <dimension ref="B2:L13"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB8B837-DFDA-1A45-9330-DE22A4CA77C3}">
+  <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:L13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1806,31 +3615,37 @@
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="6" spans="2:12" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -1885,82 +3700,153 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1977,12 +3863,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461C1C7C-FB6A-9246-B15C-A99464E8ABDB}">
-  <dimension ref="B2:L13"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7623FAF3-9876-D54D-899C-8CDA8996DE1D}">
+  <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:L13"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2001,31 +3887,37 @@
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="6" spans="2:12" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -2080,472 +3972,351 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="L13" s="7"/>
     </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB8B837-DFDA-1A45-9330-DE22A4CA77C3}">
-  <dimension ref="B2:L13"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="12" width="22" customWidth="1"/>
-    <col min="13" max="15" width="17.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="6" spans="2:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="H15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="H16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7623FAF3-9876-D54D-899C-8CDA8996DE1D}">
-  <dimension ref="B2:L13"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="12" width="22" customWidth="1"/>
-    <col min="13" max="15" width="17.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="6" spans="2:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="H17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2564,10 +4335,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E53CF7A-D323-8940-B0A6-E08D8E4B2EA4}">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2578,11 +4349,11 @@
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="12" width="22" customWidth="1"/>
-    <col min="13" max="15" width="17.83203125" customWidth="1"/>
+    <col min="7" max="11" width="22" customWidth="1"/>
+    <col min="12" max="14" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2592,9 +4363,8 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
@@ -2604,9 +4374,8 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -2616,9 +4385,8 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="6" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2626,16 +4394,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2652,25 +4419,22 @@
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
@@ -2684,336 +4448,135 @@
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A66A986-2783-8041-BC30-5C2E55C376AC}">
-  <dimension ref="B2:L13"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="12" width="22" customWidth="1"/>
-    <col min="13" max="15" width="17.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="6" spans="2:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
